--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="754">
   <si>
     <t>profile_name</t>
   </si>
@@ -151,9 +151,6 @@
     <t>Maria A Aguilar</t>
   </si>
   <si>
-    <t>Fraz Ahmed</t>
-  </si>
-  <si>
     <t>Wendy Elizabeth Ahmed</t>
   </si>
   <si>
@@ -259,6 +256,42 @@
     <t>Shahyan Hasan Aly</t>
   </si>
   <si>
+    <t>Sami Alzarooni "sami"</t>
+  </si>
+  <si>
+    <t>Joanna Katherine Aman</t>
+  </si>
+  <si>
+    <t>Craig Linn Ames</t>
+  </si>
+  <si>
+    <t>Jacob Parker Ancona "Jake"</t>
+  </si>
+  <si>
+    <t>Eric Randolph Andeer "Eric"</t>
+  </si>
+  <si>
+    <t>Bjorn Gunnar Anderson</t>
+  </si>
+  <si>
+    <t>Clayton Gardner Anderson</t>
+  </si>
+  <si>
+    <t>David Jimmie Anderson</t>
+  </si>
+  <si>
+    <t>Geddes Dowling Anderson Jr.</t>
+  </si>
+  <si>
+    <t>Gregg Joseph Anderson</t>
+  </si>
+  <si>
+    <t>Gregory Andrew Anderson</t>
+  </si>
+  <si>
+    <t>Hannah Trosen Anderson</t>
+  </si>
+  <si>
     <t>https://www.floridabar.org/directories/find-mbr/profile/?num=1026371</t>
   </si>
   <si>
@@ -325,9 +358,6 @@
     <t>https://www.floridabar.org/directories/find-mbr/profile/?num=14108</t>
   </si>
   <si>
-    <t>https://www.floridabar.org/directories/find-mbr/profile/?num=25653</t>
-  </si>
-  <si>
     <t>https://www.floridabar.org/directories/find-mbr/profile/?num=48718</t>
   </si>
   <si>
@@ -433,6 +463,42 @@
     <t>https://www.floridabar.org/directories/find-mbr/profile/?num=123028</t>
   </si>
   <si>
+    <t>https://www.floridabar.org/directories/find-mbr/profile/?num=75982</t>
+  </si>
+  <si>
+    <t>https://www.floridabar.org/directories/find-mbr/profile/?num=953474</t>
+  </si>
+  <si>
+    <t>https://www.floridabar.org/directories/find-mbr/profile/?num=77361</t>
+  </si>
+  <si>
+    <t>https://www.floridabar.org/directories/find-mbr/profile/?num=1042715</t>
+  </si>
+  <si>
+    <t>https://www.floridabar.org/directories/find-mbr/profile/?num=88531</t>
+  </si>
+  <si>
+    <t>https://www.floridabar.org/directories/find-mbr/profile/?num=76823</t>
+  </si>
+  <si>
+    <t>https://www.floridabar.org/directories/find-mbr/profile/?num=1049598</t>
+  </si>
+  <si>
+    <t>https://www.floridabar.org/directories/find-mbr/profile/?num=173053</t>
+  </si>
+  <si>
+    <t>https://www.floridabar.org/directories/find-mbr/profile/?num=138894</t>
+  </si>
+  <si>
+    <t>https://www.floridabar.org/directories/find-mbr/profile/?num=587206</t>
+  </si>
+  <si>
+    <t>https://www.floridabar.org/directories/find-mbr/profile/?num=398853</t>
+  </si>
+  <si>
+    <t>https://www.floridabar.org/directories/find-mbr/profile/?num=1003186</t>
+  </si>
+  <si>
     <t>https://imageserver.floridabar.org/Images/4/71/1042714p.jpg</t>
   </si>
   <si>
@@ -475,6 +541,21 @@
     <t>https://imageserver.floridabar.org/Images/7/62/0096627p.jpg</t>
   </si>
   <si>
+    <t>https://imageserver.floridabar.org/Images/1/36/0077361p.jpg</t>
+  </si>
+  <si>
+    <t>https://imageserver.floridabar.org/Images/3/05/0173053p.jpg</t>
+  </si>
+  <si>
+    <t>https://imageserver.floridabar.org/Images/4/89/0138894p.jpg</t>
+  </si>
+  <si>
+    <t>https://imageserver.floridabar.org/Images/3/85/0398853p.jpg</t>
+  </si>
+  <si>
+    <t>https://imageserver.floridabar.org/Images/6/18/1003186p.jpg</t>
+  </si>
+  <si>
     <t>1026371</t>
   </si>
   <si>
@@ -541,9 +622,6 @@
     <t>14108</t>
   </si>
   <si>
-    <t>25653</t>
-  </si>
-  <si>
     <t>48718</t>
   </si>
   <si>
@@ -649,6 +727,42 @@
     <t>123028</t>
   </si>
   <si>
+    <t>75982</t>
+  </si>
+  <si>
+    <t>953474</t>
+  </si>
+  <si>
+    <t>77361</t>
+  </si>
+  <si>
+    <t>1042715</t>
+  </si>
+  <si>
+    <t>88531</t>
+  </si>
+  <si>
+    <t>76823</t>
+  </si>
+  <si>
+    <t>1049598</t>
+  </si>
+  <si>
+    <t>173053</t>
+  </si>
+  <si>
+    <t>138894</t>
+  </si>
+  <si>
+    <t>587206</t>
+  </si>
+  <si>
+    <t>398853</t>
+  </si>
+  <si>
+    <t>1003186</t>
+  </si>
+  <si>
     <t>Law Office of Jason K.S. Porter, P.A.</t>
   </si>
   <si>
@@ -700,9 +814,6 @@
     <t>Florida Immigration Law Firm LLC</t>
   </si>
   <si>
-    <t>Coker Law</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -772,6 +883,39 @@
     <t>Sussman, Johnson and Alvarez Family Law</t>
   </si>
   <si>
+    <t>sami alzarooni</t>
+  </si>
+  <si>
+    <t>Ames Law, P.A.</t>
+  </si>
+  <si>
+    <t>Law Offices of J. Ancona</t>
+  </si>
+  <si>
+    <t>Morgan and Morgan</t>
+  </si>
+  <si>
+    <t>Meunier, Carlin &amp; Curfman, LLC</t>
+  </si>
+  <si>
+    <t>Mr. Clayton G. Anderson</t>
+  </si>
+  <si>
+    <t>Abbott Law Group, P.A.</t>
+  </si>
+  <si>
+    <t>Murphy &amp; Anderson, P.A.</t>
+  </si>
+  <si>
+    <t>Truck Accident Law Firm</t>
+  </si>
+  <si>
+    <t>AndersonGlenn LLP</t>
+  </si>
+  <si>
+    <t>Coleman Talley</t>
+  </si>
+  <si>
     <t>3325 Hendricks Ave Ste A</t>
   </si>
   <si>
@@ -838,9 +982,6 @@
     <t>Jacksonville, FL 32202</t>
   </si>
   <si>
-    <t>PO Box 1860</t>
-  </si>
-  <si>
     <t>13100 Broxton Bay Dr Apt 414</t>
   </si>
   <si>
@@ -934,6 +1075,33 @@
     <t>Jacksonville, FL 32256-7053</t>
   </si>
   <si>
+    <t>8165 Hollyridge Rd</t>
+  </si>
+  <si>
+    <t>815 S Main St</t>
+  </si>
+  <si>
+    <t>12379 Kiwi Ct</t>
+  </si>
+  <si>
+    <t>Waterview Ii, Suite 100</t>
+  </si>
+  <si>
+    <t>2929 Plummer Cove Rd</t>
+  </si>
+  <si>
+    <t>1501 San Marco Blvd</t>
+  </si>
+  <si>
+    <t>1200 Riverplace Blvd Ste 902</t>
+  </si>
+  <si>
+    <t>10751 Deerwood Park Blvd Ste 105</t>
+  </si>
+  <si>
+    <t>1 Independent Dr Ste 3130</t>
+  </si>
+  <si>
     <t>9429 Silhouette Ln</t>
   </si>
   <si>
@@ -943,6 +1111,9 @@
     <t>10151 Deerwood Park Blvd Ste 200-250</t>
   </si>
   <si>
+    <t>10752 Deerwood Park Blvd</t>
+  </si>
+  <si>
     <t>Jacksonville</t>
   </si>
   <si>
@@ -1009,9 +1180,6 @@
     <t>32204-4318</t>
   </si>
   <si>
-    <t>32201-1860</t>
-  </si>
-  <si>
     <t>32218-8366</t>
   </si>
   <si>
@@ -1105,6 +1273,33 @@
     <t>32256-7053</t>
   </si>
   <si>
+    <t>32256-7103</t>
+  </si>
+  <si>
+    <t>32207-9050</t>
+  </si>
+  <si>
+    <t>32225-6219</t>
+  </si>
+  <si>
+    <t>32256-4849</t>
+  </si>
+  <si>
+    <t>32223-6610</t>
+  </si>
+  <si>
+    <t>32207-2926</t>
+  </si>
+  <si>
+    <t>32207-1806</t>
+  </si>
+  <si>
+    <t>32256-4853</t>
+  </si>
+  <si>
+    <t>32202-5023</t>
+  </si>
+  <si>
     <t>Duval</t>
   </si>
   <si>
@@ -1174,9 +1369,6 @@
     <t>09/23/2005</t>
   </si>
   <si>
-    <t>09/21/2006</t>
-  </si>
-  <si>
     <t>02/04/2008</t>
   </si>
   <si>
@@ -1279,6 +1471,36 @@
     <t>07/23/2016</t>
   </si>
   <si>
+    <t>03/19/2010</t>
+  </si>
+  <si>
+    <t>09/29/1992</t>
+  </si>
+  <si>
+    <t>04/20/2010</t>
+  </si>
+  <si>
+    <t>02/15/2023</t>
+  </si>
+  <si>
+    <t>04/15/2011</t>
+  </si>
+  <si>
+    <t>04/16/2010</t>
+  </si>
+  <si>
+    <t>09/26/2023</t>
+  </si>
+  <si>
+    <t>05/05/1998</t>
+  </si>
+  <si>
+    <t>09/25/2002</t>
+  </si>
+  <si>
+    <t>06/14/1984</t>
+  </si>
+  <si>
     <t>None</t>
   </si>
   <si>
@@ -1327,9 +1549,6 @@
     <t>Florida Coastal School of Law, 2005</t>
   </si>
   <si>
-    <t>Florida Coastal School of Law, 2006</t>
-  </si>
-  <si>
     <t>George Washington University Law School, 2004</t>
   </si>
   <si>
@@ -1397,6 +1616,30 @@
   </si>
   <si>
     <t>Florida Coastal School of Law, 2012</t>
+  </si>
+  <si>
+    <t>Georgia State University College of Law, 1992</t>
+  </si>
+  <si>
+    <t>DePaul University College of Law, 1969</t>
+  </si>
+  <si>
+    <t>Florida Coastal School of Law, 2009</t>
+  </si>
+  <si>
+    <t>Regent University School of Law, 1996</t>
+  </si>
+  <si>
+    <t>University of Florida, Fredric G. Levin College of Law, 1999</t>
+  </si>
+  <si>
+    <t>Florida Coastal School of Law, 2002</t>
+  </si>
+  <si>
+    <t>Nova Southeastern University - Shepard Broad College of Law</t>
+  </si>
+  <si>
+    <t>University of Minnesota Law School, 2017</t>
   </si>
   <si>
     <t>Appellate Practice
@@ -1426,9 +1669,6 @@
 International Law</t>
   </si>
   <si>
-    <t>Trial Lawyers</t>
-  </si>
-  <si>
     <t>Real Property, Probate &amp; Trust
 Tax</t>
   </si>
@@ -1436,10 +1676,28 @@
     <t>Workers Compensation Law</t>
   </si>
   <si>
+    <t>Trial Lawyers</t>
+  </si>
+  <si>
     <t>Solo &amp; Small Firm</t>
   </si>
   <si>
     <t>Health Law</t>
+  </si>
+  <si>
+    <t>Elder Law
+Solo &amp; Small Firm</t>
+  </si>
+  <si>
+    <t>Business Law</t>
+  </si>
+  <si>
+    <t>Business Law
+Trial Lawyers</t>
+  </si>
+  <si>
+    <t>Real Property, Probate &amp; Trust
+Young Lawyers</t>
   </si>
   <si>
     <t>Criminal</t>
@@ -1473,18 +1731,6 @@
 Workers' Compensation</t>
   </si>
   <si>
-    <t>Civil Litigation
-Civil Trial
-Commercial Litigation
-Insurance
-Litigation/Trial Advocacy/Advocacy
-Personal Injury
-Product Liability
-Toxic Torts
-Transportation
-Trial</t>
-  </si>
-  <si>
     <t>Business and Taxation
 Elder
 Estate Planning
@@ -1519,6 +1765,35 @@
 Transportation</t>
   </si>
   <si>
+    <t>Personal Injury</t>
+  </si>
+  <si>
+    <t>Arbitration
+Banking
+Business
+Civil Litigation
+Civil Trial
+Commercial Litigation
+Finance and Investments
+Legal Malpractice
+Product Liability
+Professional Liability
+Securities</t>
+  </si>
+  <si>
+    <t>Admiralty and Maritime
+Aviation
+Business
+Civil Litigation
+Civil Trial
+Commercial Litigation
+Legal Malpractice
+Litigation/Trial Advocacy/Advocacy
+Personal Injury
+Product Liability
+Professional Liability</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -1531,12 +1806,12 @@
     <t>&gt;100</t>
   </si>
   <si>
+    <t>6-10</t>
+  </si>
+  <si>
     <t>11-20</t>
   </si>
   <si>
-    <t>6-10</t>
-  </si>
-  <si>
     <t>51-100</t>
   </si>
   <si>
@@ -1559,9 +1834,6 @@
   </si>
   <si>
     <t>Arabic</t>
-  </si>
-  <si>
-    <t>Urdu</t>
   </si>
   <si>
     <t>Hindi
@@ -1598,9 +1870,6 @@
     <t>https://immigrationlawfla.com</t>
   </si>
   <si>
-    <t>https://www.cokerlaw.com</t>
-  </si>
-  <si>
     <t>https://www.lippes.com</t>
   </si>
   <si>
@@ -1637,6 +1906,24 @@
     <t>https://hallboothsmith.com/</t>
   </si>
   <si>
+    <t>https://www.ameslaw.me</t>
+  </si>
+  <si>
+    <t>https://www.mcciplaw.com</t>
+  </si>
+  <si>
+    <t>https://forthepeople.com</t>
+  </si>
+  <si>
+    <t>https://www.abbottlawgroup.com</t>
+  </si>
+  <si>
+    <t>https://www.murphyandersonlaw.com</t>
+  </si>
+  <si>
+    <t>https://asglaw.com</t>
+  </si>
+  <si>
     <t>904-858-3211</t>
   </si>
   <si>
@@ -1700,9 +1987,6 @@
     <t>904-623-2188</t>
   </si>
   <si>
-    <t>904-356-6071</t>
-  </si>
-  <si>
     <t>904-524-0849</t>
   </si>
   <si>
@@ -1799,24 +2083,262 @@
     <t>214-755-0927</t>
   </si>
   <si>
+    <t>917-399-4414</t>
+  </si>
+  <si>
+    <t>904-390-7120</t>
+  </si>
+  <si>
+    <t>904-654-3518</t>
+  </si>
+  <si>
+    <t>303-489-1670</t>
+  </si>
+  <si>
+    <t>904-417-4182</t>
+  </si>
+  <si>
+    <t>904-224-6206</t>
+  </si>
+  <si>
+    <t>904-944-8527</t>
+  </si>
+  <si>
+    <t>904-598-9282</t>
+  </si>
+  <si>
+    <t>904-306-9220</t>
+  </si>
+  <si>
+    <t>904-273-4734</t>
+  </si>
+  <si>
+    <t>904-456-8962</t>
+  </si>
+  <si>
     <t>954-303-7722</t>
   </si>
   <si>
     <t>904-566-4101</t>
   </si>
   <si>
-    <t>904-704-7725</t>
-  </si>
-  <si>
     <t>000-0000</t>
   </si>
   <si>
     <t>904-307-5173</t>
   </si>
   <si>
-    <t xml:space="preserve">
-[email protected]
-</t>
+    <t>904-401-0881</t>
+  </si>
+  <si>
+    <t>904-382-3465</t>
+  </si>
+  <si>
+    <t>shawna@pickporter.com</t>
+  </si>
+  <si>
+    <t>forrest@forrestabbottlaw.com</t>
+  </si>
+  <si>
+    <t>fabbott@abbottlawpa.com</t>
+  </si>
+  <si>
+    <t>haia@afi-law.com</t>
+  </si>
+  <si>
+    <t>ja-malak@comcast.net</t>
+  </si>
+  <si>
+    <t>michael.abel@asserson.com</t>
+  </si>
+  <si>
+    <t>sami.achem@csklegal.com</t>
+  </si>
+  <si>
+    <t>kalee.m.adair@irscounsel.treas.gov</t>
+  </si>
+  <si>
+    <t>tadam@adamlawgroup.com</t>
+  </si>
+  <si>
+    <t>lep@agadamslaw.com</t>
+  </si>
+  <si>
+    <t>bmadams@coj.net</t>
+  </si>
+  <si>
+    <t>elisibeth.adams@usdoj.gov</t>
+  </si>
+  <si>
+    <t>nicole.adamsjd@gmail.com</t>
+  </si>
+  <si>
+    <t>ray@silverfieldgroup.com</t>
+  </si>
+  <si>
+    <t>sissyadamsjones@yahoo.com</t>
+  </si>
+  <si>
+    <t>eadamson@hallboothsmith.com</t>
+  </si>
+  <si>
+    <t>mark@addingtonlaw.com</t>
+  </si>
+  <si>
+    <t>crystal.adkins@hklaw.com</t>
+  </si>
+  <si>
+    <t>tager@hamiltonmillerlaw.com</t>
+  </si>
+  <si>
+    <t>kaguiar@miltonleach.com</t>
+  </si>
+  <si>
+    <t>maguila@immigrationlawfla.com</t>
+  </si>
+  <si>
+    <t>maria.aguilar@everbank.com</t>
+  </si>
+  <si>
+    <t>wendyby820@gmail.com</t>
+  </si>
+  <si>
+    <t>daniel.d.akel@gmail.com</t>
+  </si>
+  <si>
+    <t>eakel@lippes.com</t>
+  </si>
+  <si>
+    <t>fakel@coj.net</t>
+  </si>
+  <si>
+    <t>jerryakel@fcol.com</t>
+  </si>
+  <si>
+    <t>holley@jaxcomplaw.com</t>
+  </si>
+  <si>
+    <t>helen.albee@atritt.com</t>
+  </si>
+  <si>
+    <t>steve@esalawgroup.com</t>
+  </si>
+  <si>
+    <t>rose@landmarktitle.com</t>
+  </si>
+  <si>
+    <t>allison.albert@flhealth.gov</t>
+  </si>
+  <si>
+    <t>zachary.aldrich.eda9@statefarm.com</t>
+  </si>
+  <si>
+    <t>ncoutu@harrellandharrell.com</t>
+  </si>
+  <si>
+    <t>jalexander@edwardsedwardslaw.com</t>
+  </si>
+  <si>
+    <t>mark.alexander@adblegal.com</t>
+  </si>
+  <si>
+    <t>rick@alexanderlawpractice.com</t>
+  </si>
+  <si>
+    <t>mjalfano@gmail.com</t>
+  </si>
+  <si>
+    <t>charlesalford@forthepeople.com</t>
+  </si>
+  <si>
+    <t>howalford@gmail.com</t>
+  </si>
+  <si>
+    <t>ralgee@coj.net</t>
+  </si>
+  <si>
+    <t>melissaallaman@gmail.com</t>
+  </si>
+  <si>
+    <t>gallen@rtlaw.com</t>
+  </si>
+  <si>
+    <t>ballen@hallboothsmith.com</t>
+  </si>
+  <si>
+    <t>james@jda-law.com</t>
+  </si>
+  <si>
+    <t>lallen@allenlandgroup.com</t>
+  </si>
+  <si>
+    <t>allen.marjorie@mayo.edu</t>
+  </si>
+  <si>
+    <t>allen.ranaldo@gmail.com</t>
+  </si>
+  <si>
+    <t>rachela@coj.net</t>
+  </si>
+  <si>
+    <t>calonso@hamiltonmillerlaw.com</t>
+  </si>
+  <si>
+    <t>laura.alrutz@gmail.com</t>
+  </si>
+  <si>
+    <t>dalston@mcconnaughhay.com</t>
+  </si>
+  <si>
+    <t>zaltenbach@farahandfarah.com</t>
+  </si>
+  <si>
+    <t>joe@sjafamlaw.com</t>
+  </si>
+  <si>
+    <t>kalvarez@hallboothsmith.com</t>
+  </si>
+  <si>
+    <t>andrewalvesesq@gmail.com</t>
+  </si>
+  <si>
+    <t>shahyan@shahyan.com</t>
+  </si>
+  <si>
+    <t>sami.alzarooni@gmail.com</t>
+  </si>
+  <si>
+    <t>jaman@suddath.com</t>
+  </si>
+  <si>
+    <t>craig@ameslaw.me</t>
+  </si>
+  <si>
+    <t>jake@janconalaw.com</t>
+  </si>
+  <si>
+    <t>eandeer@forthepeople.com</t>
+  </si>
+  <si>
+    <t>banderson@mcciplaw.com</t>
+  </si>
+  <si>
+    <t>canderson@forthepeople.com</t>
+  </si>
+  <si>
+    <t>danderson@abbottlawpa.com</t>
+  </si>
+  <si>
+    <t>ganderson@murphyandersonlaw.com</t>
+  </si>
+  <si>
+    <t>gja@truckcrashlaw.com</t>
+  </si>
+  <si>
+    <t>gaanderson@asglaw.com</t>
+  </si>
+  <si>
+    <t>hannah.anderson@colemantalley.com</t>
   </si>
 </sst>
 </file>
@@ -2187,7 +2709,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W59"/>
+  <dimension ref="A1:W71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2269,55 +2791,55 @@
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="F2" t="s">
-        <v>252</v>
+        <v>300</v>
       </c>
       <c r="H2" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I2" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J2" t="s">
-        <v>311</v>
+        <v>368</v>
       </c>
       <c r="K2" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L2" t="s">
-        <v>364</v>
+        <v>429</v>
       </c>
       <c r="M2" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="N2" t="s">
-        <v>422</v>
+        <v>496</v>
       </c>
       <c r="O2" t="s">
-        <v>461</v>
+        <v>542</v>
       </c>
       <c r="P2" t="s">
-        <v>473</v>
+        <v>558</v>
       </c>
       <c r="R2" t="s">
-        <v>492</v>
+        <v>579</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>501</v>
+        <v>587</v>
       </c>
       <c r="U2" t="s">
-        <v>524</v>
+        <v>615</v>
       </c>
       <c r="W2" t="s">
-        <v>583</v>
+        <v>685</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -2325,58 +2847,58 @@
         <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="E3" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="F3" t="s">
-        <v>253</v>
+        <v>301</v>
       </c>
       <c r="H3" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I3" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J3" t="s">
-        <v>312</v>
+        <v>369</v>
       </c>
       <c r="K3" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L3" t="s">
-        <v>365</v>
+        <v>430</v>
       </c>
       <c r="M3" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="N3" t="s">
-        <v>423</v>
+        <v>497</v>
       </c>
       <c r="P3" t="s">
-        <v>474</v>
+        <v>559</v>
       </c>
       <c r="Q3" t="s">
-        <v>485</v>
+        <v>572</v>
       </c>
       <c r="R3" t="s">
-        <v>493</v>
+        <v>580</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>502</v>
+        <v>588</v>
       </c>
       <c r="U3" t="s">
-        <v>525</v>
+        <v>616</v>
       </c>
       <c r="V3" t="s">
-        <v>525</v>
+        <v>616</v>
       </c>
       <c r="W3" t="s">
-        <v>583</v>
+        <v>686</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -2384,49 +2906,49 @@
         <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="F4" t="s">
-        <v>254</v>
+        <v>302</v>
       </c>
       <c r="H4" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I4" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J4" t="s">
-        <v>313</v>
+        <v>370</v>
       </c>
       <c r="K4" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L4" t="s">
-        <v>366</v>
+        <v>431</v>
       </c>
       <c r="M4" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="N4" t="s">
-        <v>424</v>
+        <v>498</v>
       </c>
       <c r="P4" t="s">
-        <v>475</v>
+        <v>560</v>
       </c>
       <c r="Q4" t="s">
-        <v>486</v>
+        <v>573</v>
       </c>
       <c r="R4" t="s">
-        <v>493</v>
+        <v>580</v>
       </c>
       <c r="U4" t="s">
-        <v>526</v>
+        <v>617</v>
       </c>
       <c r="W4" t="s">
-        <v>583</v>
+        <v>687</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -2434,61 +2956,61 @@
         <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="E5" t="s">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="F5" t="s">
-        <v>255</v>
+        <v>303</v>
       </c>
       <c r="H5" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I5" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J5" t="s">
-        <v>314</v>
+        <v>371</v>
       </c>
       <c r="K5" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L5" t="s">
-        <v>367</v>
+        <v>432</v>
       </c>
       <c r="M5" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="N5" t="s">
-        <v>425</v>
+        <v>499</v>
       </c>
       <c r="O5" t="s">
-        <v>462</v>
+        <v>543</v>
       </c>
       <c r="P5" t="s">
-        <v>476</v>
+        <v>561</v>
       </c>
       <c r="Q5" t="s">
-        <v>486</v>
+        <v>573</v>
       </c>
       <c r="R5" t="s">
-        <v>494</v>
+        <v>581</v>
       </c>
       <c r="S5" t="s">
-        <v>498</v>
+        <v>585</v>
       </c>
       <c r="U5" t="s">
-        <v>527</v>
+        <v>618</v>
       </c>
       <c r="W5" t="s">
-        <v>583</v>
+        <v>688</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -2496,40 +3018,40 @@
         <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="E6" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="F6" t="s">
-        <v>256</v>
+        <v>304</v>
       </c>
       <c r="H6" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I6" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J6" t="s">
-        <v>315</v>
+        <v>372</v>
       </c>
       <c r="K6" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L6" t="s">
-        <v>368</v>
+        <v>433</v>
       </c>
       <c r="M6" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="O6" t="s">
-        <v>463</v>
+        <v>544</v>
       </c>
       <c r="W6" t="s">
-        <v>583</v>
+        <v>689</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -2537,58 +3059,58 @@
         <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="D7" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="E7" t="s">
-        <v>215</v>
+        <v>253</v>
       </c>
       <c r="F7" t="s">
-        <v>257</v>
+        <v>305</v>
       </c>
       <c r="H7" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I7" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J7" t="s">
-        <v>316</v>
+        <v>373</v>
       </c>
       <c r="K7" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L7" t="s">
-        <v>369</v>
+        <v>434</v>
       </c>
       <c r="M7" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="N7" t="s">
-        <v>426</v>
+        <v>500</v>
       </c>
       <c r="Q7" t="s">
-        <v>487</v>
+        <v>574</v>
       </c>
       <c r="R7" t="s">
-        <v>495</v>
+        <v>582</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>503</v>
+        <v>589</v>
       </c>
       <c r="U7" t="s">
-        <v>528</v>
+        <v>619</v>
       </c>
       <c r="V7" t="s">
-        <v>528</v>
+        <v>619</v>
       </c>
       <c r="W7" t="s">
-        <v>583</v>
+        <v>690</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -2596,55 +3118,55 @@
         <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="E8" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
       <c r="F8" t="s">
-        <v>258</v>
+        <v>306</v>
       </c>
       <c r="H8" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I8" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J8" t="s">
-        <v>317</v>
+        <v>374</v>
       </c>
       <c r="K8" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L8" t="s">
-        <v>370</v>
+        <v>435</v>
       </c>
       <c r="M8" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="Q8" t="s">
-        <v>488</v>
+        <v>575</v>
       </c>
       <c r="R8" t="s">
-        <v>493</v>
+        <v>580</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>504</v>
+        <v>590</v>
       </c>
       <c r="U8" t="s">
-        <v>529</v>
+        <v>620</v>
       </c>
       <c r="V8" t="s">
-        <v>529</v>
+        <v>620</v>
       </c>
       <c r="W8" t="s">
-        <v>583</v>
+        <v>691</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -2652,49 +3174,49 @@
         <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="E9" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="F9" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="H9" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I9" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J9" t="s">
-        <v>318</v>
+        <v>375</v>
       </c>
       <c r="K9" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L9" t="s">
-        <v>371</v>
+        <v>436</v>
       </c>
       <c r="M9" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="N9" t="s">
-        <v>427</v>
+        <v>501</v>
       </c>
       <c r="O9" t="s">
-        <v>463</v>
+        <v>544</v>
       </c>
       <c r="R9" t="s">
-        <v>496</v>
+        <v>583</v>
       </c>
       <c r="U9" t="s">
-        <v>530</v>
+        <v>621</v>
       </c>
       <c r="W9" t="s">
-        <v>583</v>
+        <v>692</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -2702,58 +3224,58 @@
         <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="E10" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="F10" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="H10" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I10" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J10" t="s">
-        <v>319</v>
+        <v>376</v>
       </c>
       <c r="K10" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L10" t="s">
-        <v>372</v>
+        <v>437</v>
       </c>
       <c r="M10" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="N10" t="s">
-        <v>428</v>
+        <v>502</v>
       </c>
       <c r="Q10" t="s">
-        <v>486</v>
+        <v>573</v>
       </c>
       <c r="R10" t="s">
-        <v>495</v>
+        <v>582</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>505</v>
+        <v>591</v>
       </c>
       <c r="U10" t="s">
-        <v>531</v>
+        <v>622</v>
       </c>
       <c r="V10" t="s">
-        <v>578</v>
+        <v>679</v>
       </c>
       <c r="W10" t="s">
-        <v>583</v>
+        <v>693</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -2761,61 +3283,61 @@
         <v>32</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="D11" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="E11" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c r="F11" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="H11" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I11" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J11" t="s">
-        <v>320</v>
+        <v>377</v>
       </c>
       <c r="K11" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L11" t="s">
-        <v>373</v>
+        <v>438</v>
       </c>
       <c r="M11" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="N11" t="s">
-        <v>429</v>
+        <v>503</v>
       </c>
       <c r="O11" t="s">
-        <v>464</v>
+        <v>545</v>
       </c>
       <c r="Q11" t="s">
-        <v>486</v>
+        <v>573</v>
       </c>
       <c r="R11" t="s">
-        <v>495</v>
+        <v>582</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>506</v>
+        <v>592</v>
       </c>
       <c r="U11" t="s">
-        <v>532</v>
+        <v>623</v>
       </c>
       <c r="V11" t="s">
-        <v>532</v>
+        <v>623</v>
       </c>
       <c r="W11" t="s">
-        <v>583</v>
+        <v>694</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -2823,49 +3345,49 @@
         <v>33</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="D12" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="E12" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="F12" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H12" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I12" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J12" t="s">
-        <v>321</v>
+        <v>378</v>
       </c>
       <c r="K12" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L12" t="s">
-        <v>374</v>
+        <v>439</v>
       </c>
       <c r="M12" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="P12" t="s">
-        <v>473</v>
+        <v>558</v>
       </c>
       <c r="R12" t="s">
-        <v>496</v>
+        <v>583</v>
       </c>
       <c r="U12" t="s">
-        <v>533</v>
+        <v>624</v>
       </c>
       <c r="W12" t="s">
-        <v>583</v>
+        <v>695</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2873,43 +3395,43 @@
         <v>34</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D13" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="E13" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="F13" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="H13" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I13" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J13" t="s">
-        <v>322</v>
+        <v>379</v>
       </c>
       <c r="K13" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L13" t="s">
-        <v>375</v>
+        <v>440</v>
       </c>
       <c r="M13" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="O13" t="s">
-        <v>463</v>
+        <v>544</v>
       </c>
       <c r="U13" t="s">
-        <v>534</v>
+        <v>625</v>
       </c>
       <c r="W13" t="s">
-        <v>583</v>
+        <v>696</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2917,40 +3439,40 @@
         <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D14" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="E14" t="s">
         <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>264</v>
+        <v>312</v>
       </c>
       <c r="H14" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I14" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J14" t="s">
-        <v>323</v>
+        <v>380</v>
       </c>
       <c r="K14" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L14" t="s">
-        <v>376</v>
+        <v>441</v>
       </c>
       <c r="M14" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="U14" t="s">
-        <v>535</v>
+        <v>626</v>
       </c>
       <c r="W14" t="s">
-        <v>583</v>
+        <v>697</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2958,52 +3480,52 @@
         <v>36</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="E15" t="s">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="F15" t="s">
-        <v>265</v>
+        <v>313</v>
       </c>
       <c r="H15" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I15" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J15" t="s">
-        <v>324</v>
+        <v>381</v>
       </c>
       <c r="K15" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L15" t="s">
-        <v>377</v>
+        <v>442</v>
       </c>
       <c r="M15" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="N15" t="s">
-        <v>430</v>
+        <v>504</v>
       </c>
       <c r="Q15" t="s">
-        <v>485</v>
+        <v>572</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>507</v>
+        <v>593</v>
       </c>
       <c r="U15" t="s">
-        <v>536</v>
+        <v>627</v>
       </c>
       <c r="V15" t="s">
-        <v>536</v>
+        <v>627</v>
       </c>
       <c r="W15" t="s">
-        <v>583</v>
+        <v>698</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -3011,40 +3533,40 @@
         <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="F16" t="s">
-        <v>266</v>
+        <v>314</v>
       </c>
       <c r="H16" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I16" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J16" t="s">
-        <v>325</v>
+        <v>382</v>
       </c>
       <c r="K16" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L16" t="s">
-        <v>378</v>
+        <v>443</v>
       </c>
       <c r="M16" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="U16" t="s">
-        <v>537</v>
+        <v>628</v>
       </c>
       <c r="V16" t="s">
-        <v>579</v>
+        <v>680</v>
       </c>
       <c r="W16" t="s">
-        <v>583</v>
+        <v>699</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -3052,55 +3574,55 @@
         <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="E17" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="F17" t="s">
-        <v>267</v>
+        <v>315</v>
       </c>
       <c r="H17" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I17" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J17" t="s">
-        <v>326</v>
+        <v>383</v>
       </c>
       <c r="K17" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L17" t="s">
-        <v>379</v>
+        <v>444</v>
       </c>
       <c r="M17" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="N17" t="s">
-        <v>431</v>
+        <v>505</v>
       </c>
       <c r="O17" t="s">
-        <v>465</v>
+        <v>546</v>
       </c>
       <c r="Q17" t="s">
-        <v>488</v>
+        <v>575</v>
       </c>
       <c r="R17" t="s">
-        <v>492</v>
+        <v>579</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>508</v>
+        <v>594</v>
       </c>
       <c r="U17" t="s">
-        <v>538</v>
+        <v>629</v>
       </c>
       <c r="W17" t="s">
-        <v>583</v>
+        <v>700</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -3108,64 +3630,64 @@
         <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="D18" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="E18" t="s">
-        <v>224</v>
+        <v>262</v>
       </c>
       <c r="F18" t="s">
-        <v>268</v>
+        <v>316</v>
       </c>
       <c r="H18" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I18" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J18" t="s">
-        <v>327</v>
+        <v>384</v>
       </c>
       <c r="K18" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L18" t="s">
-        <v>380</v>
+        <v>445</v>
       </c>
       <c r="M18" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="N18" t="s">
-        <v>432</v>
+        <v>506</v>
       </c>
       <c r="O18" t="s">
-        <v>466</v>
+        <v>547</v>
       </c>
       <c r="P18" t="s">
-        <v>477</v>
+        <v>562</v>
       </c>
       <c r="Q18" t="s">
-        <v>485</v>
+        <v>572</v>
       </c>
       <c r="R18" t="s">
-        <v>494</v>
+        <v>581</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>509</v>
+        <v>595</v>
       </c>
       <c r="U18" t="s">
-        <v>539</v>
+        <v>630</v>
       </c>
       <c r="V18" t="s">
-        <v>539</v>
+        <v>630</v>
       </c>
       <c r="W18" t="s">
-        <v>583</v>
+        <v>701</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -3173,40 +3695,40 @@
         <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="F19" t="s">
-        <v>269</v>
+        <v>317</v>
       </c>
       <c r="H19" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I19" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J19" t="s">
-        <v>328</v>
+        <v>385</v>
       </c>
       <c r="K19" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L19" t="s">
-        <v>381</v>
+        <v>446</v>
       </c>
       <c r="M19" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="U19" t="s">
-        <v>540</v>
+        <v>631</v>
       </c>
       <c r="V19" t="s">
-        <v>540</v>
+        <v>631</v>
       </c>
       <c r="W19" t="s">
-        <v>583</v>
+        <v>702</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -3214,55 +3736,55 @@
         <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="D20" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="E20" t="s">
-        <v>225</v>
+        <v>263</v>
       </c>
       <c r="F20" t="s">
-        <v>270</v>
+        <v>318</v>
       </c>
       <c r="H20" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I20" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J20" t="s">
-        <v>322</v>
+        <v>379</v>
       </c>
       <c r="K20" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L20" t="s">
-        <v>382</v>
+        <v>447</v>
       </c>
       <c r="M20" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="N20" t="s">
-        <v>433</v>
+        <v>507</v>
       </c>
       <c r="O20" t="s">
-        <v>463</v>
+        <v>544</v>
       </c>
       <c r="Q20" t="s">
-        <v>488</v>
+        <v>575</v>
       </c>
       <c r="R20" t="s">
-        <v>492</v>
+        <v>579</v>
       </c>
       <c r="U20" t="s">
-        <v>541</v>
+        <v>632</v>
       </c>
       <c r="W20" t="s">
-        <v>583</v>
+        <v>703</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -3270,46 +3792,46 @@
         <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D21" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="E21" t="s">
-        <v>226</v>
+        <v>264</v>
       </c>
       <c r="F21" t="s">
-        <v>271</v>
+        <v>319</v>
       </c>
       <c r="H21" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I21" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J21" t="s">
-        <v>329</v>
+        <v>386</v>
       </c>
       <c r="K21" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L21" t="s">
-        <v>383</v>
+        <v>448</v>
       </c>
       <c r="M21" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="N21" t="s">
-        <v>434</v>
+        <v>508</v>
       </c>
       <c r="R21" t="s">
-        <v>493</v>
+        <v>580</v>
       </c>
       <c r="U21" t="s">
-        <v>542</v>
+        <v>633</v>
       </c>
       <c r="W21" t="s">
-        <v>583</v>
+        <v>704</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -3317,58 +3839,58 @@
         <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="D22" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="E22" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="F22" t="s">
-        <v>272</v>
+        <v>320</v>
       </c>
       <c r="H22" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I22" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J22" t="s">
-        <v>330</v>
+        <v>387</v>
       </c>
       <c r="K22" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L22" t="s">
-        <v>384</v>
+        <v>449</v>
       </c>
       <c r="M22" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="N22" t="s">
-        <v>435</v>
+        <v>509</v>
       </c>
       <c r="O22" t="s">
-        <v>467</v>
+        <v>548</v>
       </c>
       <c r="Q22" t="s">
-        <v>485</v>
+        <v>572</v>
       </c>
       <c r="R22" t="s">
-        <v>493</v>
+        <v>580</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>510</v>
+        <v>596</v>
       </c>
       <c r="U22" t="s">
-        <v>543</v>
+        <v>634</v>
       </c>
       <c r="W22" t="s">
-        <v>583</v>
+        <v>705</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -3376,1870 +3898,2471 @@
         <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D23" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="F23" t="s">
-        <v>273</v>
+        <v>321</v>
       </c>
       <c r="H23" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I23" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J23" t="s">
-        <v>322</v>
+        <v>379</v>
       </c>
       <c r="K23" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L23" t="s">
-        <v>385</v>
+        <v>450</v>
       </c>
       <c r="M23" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="N23" t="s">
-        <v>436</v>
+        <v>510</v>
       </c>
       <c r="U23" t="s">
-        <v>544</v>
+        <v>635</v>
       </c>
       <c r="W23" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
-      <c r="A24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" t="s">
-        <v>175</v>
-      </c>
-      <c r="E24" t="s">
-        <v>228</v>
-      </c>
-      <c r="F24" t="s">
-        <v>274</v>
-      </c>
-      <c r="H24" t="s">
-        <v>309</v>
-      </c>
-      <c r="I24" t="s">
-        <v>310</v>
-      </c>
-      <c r="J24" t="s">
-        <v>331</v>
-      </c>
-      <c r="K24" t="s">
-        <v>363</v>
-      </c>
-      <c r="L24" t="s">
-        <v>386</v>
-      </c>
-      <c r="M24" t="s">
-        <v>421</v>
-      </c>
-      <c r="N24" t="s">
-        <v>437</v>
-      </c>
-      <c r="O24" t="s">
-        <v>468</v>
-      </c>
-      <c r="P24" t="s">
-        <v>478</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>489</v>
-      </c>
-      <c r="S24" t="s">
-        <v>499</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="U24" t="s">
-        <v>545</v>
-      </c>
-      <c r="V24" t="s">
-        <v>580</v>
-      </c>
-      <c r="W24" t="s">
-        <v>583</v>
+        <v>706</v>
       </c>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D25" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="E25" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="F25" t="s">
-        <v>275</v>
+        <v>322</v>
       </c>
       <c r="H25" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I25" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J25" t="s">
-        <v>332</v>
+        <v>388</v>
       </c>
       <c r="K25" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L25" t="s">
-        <v>387</v>
+        <v>451</v>
       </c>
       <c r="M25" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="N25" t="s">
-        <v>438</v>
+        <v>511</v>
       </c>
       <c r="U25" t="s">
-        <v>546</v>
+        <v>636</v>
       </c>
       <c r="V25" t="s">
-        <v>546</v>
+        <v>636</v>
       </c>
       <c r="W25" t="s">
-        <v>583</v>
+        <v>707</v>
       </c>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D26" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="E26" t="s">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c r="F26" t="s">
-        <v>276</v>
+        <v>323</v>
       </c>
       <c r="G26" t="s">
-        <v>306</v>
+        <v>362</v>
       </c>
       <c r="H26" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I26" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J26" t="s">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="K26" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L26" t="s">
-        <v>388</v>
+        <v>452</v>
       </c>
       <c r="M26" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="O26" t="s">
-        <v>464</v>
+        <v>545</v>
       </c>
       <c r="U26" t="s">
-        <v>547</v>
+        <v>637</v>
       </c>
       <c r="V26" t="s">
-        <v>547</v>
+        <v>637</v>
       </c>
       <c r="W26" t="s">
-        <v>583</v>
+        <v>708</v>
       </c>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D27" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="E27" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="F27" t="s">
-        <v>277</v>
+        <v>324</v>
       </c>
       <c r="H27" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I27" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J27" t="s">
-        <v>334</v>
+        <v>390</v>
       </c>
       <c r="K27" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L27" t="s">
-        <v>389</v>
+        <v>453</v>
       </c>
       <c r="M27" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="N27" t="s">
-        <v>439</v>
+        <v>512</v>
       </c>
       <c r="O27" t="s">
-        <v>469</v>
+        <v>549</v>
       </c>
       <c r="P27" t="s">
-        <v>479</v>
+        <v>563</v>
       </c>
       <c r="Q27" t="s">
-        <v>488</v>
+        <v>575</v>
       </c>
       <c r="R27" t="s">
-        <v>495</v>
+        <v>582</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>512</v>
+        <v>597</v>
       </c>
       <c r="U27" t="s">
-        <v>548</v>
+        <v>638</v>
       </c>
       <c r="W27" t="s">
-        <v>583</v>
+        <v>709</v>
       </c>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D28" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="F28" t="s">
-        <v>278</v>
+        <v>325</v>
       </c>
       <c r="H28" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I28" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J28" t="s">
-        <v>335</v>
+        <v>391</v>
       </c>
       <c r="K28" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L28" t="s">
-        <v>390</v>
+        <v>454</v>
       </c>
       <c r="M28" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="N28" t="s">
-        <v>440</v>
+        <v>513</v>
       </c>
       <c r="U28" t="s">
-        <v>549</v>
+        <v>639</v>
       </c>
       <c r="V28" t="s">
-        <v>549</v>
+        <v>639</v>
       </c>
       <c r="W28" t="s">
-        <v>583</v>
+        <v>710</v>
       </c>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D29" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="E29" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="F29" t="s">
-        <v>279</v>
+        <v>326</v>
       </c>
       <c r="H29" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I29" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J29" t="s">
-        <v>336</v>
+        <v>392</v>
       </c>
       <c r="K29" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L29" t="s">
-        <v>391</v>
+        <v>455</v>
       </c>
       <c r="M29" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="N29" t="s">
-        <v>441</v>
+        <v>514</v>
       </c>
       <c r="U29" t="s">
-        <v>550</v>
+        <v>640</v>
       </c>
       <c r="V29" t="s">
-        <v>581</v>
+        <v>681</v>
       </c>
       <c r="W29" t="s">
-        <v>583</v>
+        <v>711</v>
       </c>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="D30" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="E30" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="F30" t="s">
-        <v>280</v>
+        <v>327</v>
       </c>
       <c r="H30" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I30" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J30" t="s">
-        <v>337</v>
+        <v>393</v>
       </c>
       <c r="K30" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L30" t="s">
-        <v>392</v>
+        <v>456</v>
       </c>
       <c r="M30" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="N30" t="s">
-        <v>442</v>
+        <v>515</v>
       </c>
       <c r="O30" t="s">
-        <v>470</v>
+        <v>550</v>
       </c>
       <c r="Q30" t="s">
-        <v>486</v>
+        <v>573</v>
       </c>
       <c r="R30" t="s">
-        <v>495</v>
+        <v>582</v>
       </c>
       <c r="U30" t="s">
-        <v>551</v>
+        <v>641</v>
       </c>
       <c r="V30" t="s">
-        <v>551</v>
+        <v>641</v>
       </c>
       <c r="W30" t="s">
-        <v>583</v>
+        <v>712</v>
       </c>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D31" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="E31" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="F31" t="s">
-        <v>281</v>
+        <v>328</v>
       </c>
       <c r="H31" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I31" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J31" t="s">
-        <v>338</v>
+        <v>394</v>
       </c>
       <c r="K31" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L31" t="s">
-        <v>393</v>
+        <v>457</v>
       </c>
       <c r="M31" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="N31" t="s">
-        <v>443</v>
+        <v>516</v>
       </c>
       <c r="O31" t="s">
-        <v>464</v>
+        <v>545</v>
       </c>
       <c r="P31" t="s">
-        <v>480</v>
+        <v>564</v>
       </c>
       <c r="Q31" t="s">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="R31" t="s">
-        <v>492</v>
+        <v>579</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>513</v>
+        <v>598</v>
       </c>
       <c r="U31" t="s">
-        <v>552</v>
+        <v>642</v>
       </c>
       <c r="W31" t="s">
-        <v>583</v>
+        <v>713</v>
       </c>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D32" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="E32" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="F32" t="s">
-        <v>282</v>
+        <v>329</v>
       </c>
       <c r="H32" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I32" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J32" t="s">
-        <v>339</v>
+        <v>395</v>
       </c>
       <c r="K32" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L32" t="s">
-        <v>394</v>
+        <v>458</v>
       </c>
       <c r="M32" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="N32" t="s">
-        <v>444</v>
+        <v>517</v>
       </c>
       <c r="P32" t="s">
-        <v>481</v>
+        <v>565</v>
       </c>
       <c r="Q32" t="s">
-        <v>486</v>
+        <v>573</v>
       </c>
       <c r="R32" t="s">
-        <v>495</v>
+        <v>582</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>514</v>
+        <v>599</v>
       </c>
       <c r="U32" t="s">
-        <v>553</v>
+        <v>643</v>
       </c>
       <c r="V32" t="s">
-        <v>553</v>
+        <v>643</v>
       </c>
       <c r="W32" t="s">
-        <v>583</v>
+        <v>714</v>
       </c>
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D33" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="E33" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="F33" t="s">
-        <v>283</v>
+        <v>330</v>
       </c>
       <c r="H33" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I33" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J33" t="s">
-        <v>340</v>
+        <v>396</v>
       </c>
       <c r="K33" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L33" t="s">
-        <v>395</v>
+        <v>459</v>
       </c>
       <c r="M33" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="N33" t="s">
-        <v>445</v>
+        <v>518</v>
       </c>
       <c r="O33" t="s">
-        <v>464</v>
+        <v>545</v>
       </c>
       <c r="R33" t="s">
-        <v>497</v>
+        <v>584</v>
       </c>
       <c r="U33" t="s">
-        <v>554</v>
+        <v>644</v>
       </c>
       <c r="W33" t="s">
-        <v>583</v>
+        <v>715</v>
       </c>
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D34" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="E34" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="F34" t="s">
-        <v>284</v>
+        <v>331</v>
       </c>
       <c r="G34" t="s">
-        <v>307</v>
+        <v>363</v>
       </c>
       <c r="H34" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I34" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J34" t="s">
-        <v>341</v>
+        <v>397</v>
       </c>
       <c r="K34" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L34" t="s">
-        <v>396</v>
+        <v>460</v>
       </c>
       <c r="M34" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="Q34" t="s">
-        <v>488</v>
+        <v>575</v>
       </c>
       <c r="R34" t="s">
-        <v>496</v>
+        <v>583</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>515</v>
+        <v>600</v>
       </c>
       <c r="U34" t="s">
-        <v>555</v>
+        <v>645</v>
       </c>
       <c r="W34" t="s">
-        <v>583</v>
+        <v>716</v>
       </c>
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D35" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="E35" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="F35" t="s">
-        <v>285</v>
+        <v>332</v>
       </c>
       <c r="H35" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I35" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J35" t="s">
-        <v>342</v>
+        <v>398</v>
       </c>
       <c r="K35" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L35" t="s">
-        <v>397</v>
+        <v>461</v>
       </c>
       <c r="M35" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="N35" t="s">
-        <v>446</v>
+        <v>519</v>
       </c>
       <c r="O35" t="s">
-        <v>463</v>
+        <v>544</v>
       </c>
       <c r="P35" t="s">
-        <v>482</v>
+        <v>566</v>
       </c>
       <c r="U35" t="s">
-        <v>556</v>
+        <v>646</v>
       </c>
       <c r="W35" t="s">
-        <v>583</v>
+        <v>717</v>
       </c>
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D36" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="E36" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="F36" t="s">
-        <v>286</v>
+        <v>333</v>
       </c>
       <c r="H36" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I36" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J36" t="s">
-        <v>343</v>
+        <v>399</v>
       </c>
       <c r="K36" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L36" t="s">
-        <v>398</v>
+        <v>462</v>
       </c>
       <c r="M36" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="N36" t="s">
-        <v>447</v>
+        <v>520</v>
       </c>
       <c r="O36" t="s">
-        <v>463</v>
+        <v>544</v>
       </c>
       <c r="Q36" t="s">
-        <v>489</v>
+        <v>577</v>
       </c>
       <c r="R36" t="s">
-        <v>492</v>
+        <v>579</v>
       </c>
       <c r="U36" t="s">
-        <v>557</v>
+        <v>647</v>
       </c>
       <c r="V36" t="s">
-        <v>557</v>
+        <v>647</v>
       </c>
       <c r="W36" t="s">
-        <v>583</v>
+        <v>718</v>
       </c>
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D37" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="E37" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="F37" t="s">
-        <v>287</v>
+        <v>334</v>
       </c>
       <c r="H37" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I37" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J37" t="s">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="K37" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L37" t="s">
-        <v>399</v>
+        <v>463</v>
       </c>
       <c r="M37" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="O37" t="s">
-        <v>463</v>
+        <v>544</v>
       </c>
       <c r="Q37" t="s">
-        <v>486</v>
+        <v>573</v>
       </c>
       <c r="R37" t="s">
-        <v>492</v>
+        <v>579</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>516</v>
+        <v>601</v>
       </c>
       <c r="U37" t="s">
-        <v>558</v>
+        <v>648</v>
       </c>
       <c r="W37" t="s">
-        <v>583</v>
+        <v>719</v>
       </c>
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D38" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="F38" t="s">
-        <v>288</v>
+        <v>335</v>
       </c>
       <c r="H38" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I38" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J38" t="s">
-        <v>345</v>
+        <v>401</v>
       </c>
       <c r="K38" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L38" t="s">
-        <v>400</v>
+        <v>464</v>
       </c>
       <c r="M38" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="N38" t="s">
-        <v>441</v>
+        <v>514</v>
       </c>
       <c r="O38" t="s">
-        <v>468</v>
+        <v>551</v>
       </c>
       <c r="U38" t="s">
-        <v>559</v>
+        <v>649</v>
       </c>
       <c r="V38" t="s">
-        <v>582</v>
+        <v>682</v>
       </c>
       <c r="W38" t="s">
-        <v>583</v>
+        <v>720</v>
       </c>
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="D39" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="E39" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="F39" t="s">
-        <v>289</v>
+        <v>336</v>
       </c>
       <c r="H39" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I39" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J39" t="s">
-        <v>346</v>
+        <v>402</v>
       </c>
       <c r="K39" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L39" t="s">
-        <v>401</v>
+        <v>465</v>
       </c>
       <c r="M39" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="N39" t="s">
-        <v>448</v>
+        <v>521</v>
       </c>
       <c r="O39" t="s">
-        <v>471</v>
+        <v>552</v>
       </c>
       <c r="Q39" t="s">
-        <v>486</v>
+        <v>573</v>
       </c>
       <c r="R39" t="s">
-        <v>493</v>
+        <v>580</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>517</v>
+        <v>602</v>
       </c>
       <c r="U39" t="s">
-        <v>560</v>
+        <v>650</v>
       </c>
       <c r="V39" t="s">
-        <v>560</v>
+        <v>650</v>
       </c>
       <c r="W39" t="s">
-        <v>583</v>
+        <v>721</v>
       </c>
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D40" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="F40" t="s">
-        <v>290</v>
+        <v>337</v>
       </c>
       <c r="H40" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I40" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J40" t="s">
-        <v>347</v>
+        <v>403</v>
       </c>
       <c r="K40" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L40" t="s">
-        <v>402</v>
+        <v>466</v>
       </c>
       <c r="M40" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="U40" t="s">
-        <v>561</v>
+        <v>651</v>
       </c>
       <c r="W40" t="s">
-        <v>583</v>
+        <v>722</v>
       </c>
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D41" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="E41" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="F41" t="s">
-        <v>291</v>
+        <v>338</v>
       </c>
       <c r="H41" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I41" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J41" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="K41" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L41" t="s">
-        <v>403</v>
+        <v>467</v>
       </c>
       <c r="M41" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="N41" t="s">
-        <v>449</v>
+        <v>522</v>
       </c>
       <c r="P41" t="s">
-        <v>483</v>
+        <v>567</v>
       </c>
       <c r="Q41" t="s">
-        <v>488</v>
+        <v>575</v>
       </c>
       <c r="R41" t="s">
-        <v>492</v>
+        <v>579</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>518</v>
+        <v>603</v>
       </c>
       <c r="U41" t="s">
-        <v>562</v>
+        <v>652</v>
       </c>
       <c r="W41" t="s">
-        <v>583</v>
+        <v>723</v>
       </c>
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D42" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="E42" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="F42" t="s">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="G42" t="s">
-        <v>308</v>
+        <v>364</v>
       </c>
       <c r="H42" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I42" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J42" t="s">
-        <v>349</v>
+        <v>405</v>
       </c>
       <c r="K42" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L42" t="s">
-        <v>404</v>
+        <v>468</v>
       </c>
       <c r="M42" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="N42" t="s">
-        <v>450</v>
+        <v>523</v>
       </c>
       <c r="Q42" t="s">
-        <v>486</v>
+        <v>573</v>
       </c>
       <c r="R42" t="s">
-        <v>495</v>
+        <v>582</v>
       </c>
       <c r="U42" t="s">
-        <v>563</v>
+        <v>653</v>
       </c>
       <c r="W42" t="s">
-        <v>583</v>
+        <v>724</v>
       </c>
     </row>
     <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D43" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="F43" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H43" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I43" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J43" t="s">
-        <v>321</v>
+        <v>378</v>
       </c>
       <c r="K43" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L43" t="s">
-        <v>405</v>
+        <v>469</v>
       </c>
       <c r="M43" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="N43" t="s">
-        <v>451</v>
+        <v>524</v>
       </c>
       <c r="U43" t="s">
-        <v>533</v>
+        <v>624</v>
       </c>
       <c r="W43" t="s">
-        <v>583</v>
+        <v>725</v>
       </c>
     </row>
     <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D44" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="F44" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="H44" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I44" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J44" t="s">
-        <v>350</v>
+        <v>406</v>
       </c>
       <c r="K44" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L44" t="s">
-        <v>406</v>
+        <v>470</v>
       </c>
       <c r="M44" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="N44" t="s">
-        <v>452</v>
+        <v>525</v>
       </c>
       <c r="U44" t="s">
-        <v>564</v>
+        <v>654</v>
       </c>
       <c r="V44" t="s">
-        <v>564</v>
+        <v>654</v>
       </c>
       <c r="W44" t="s">
-        <v>583</v>
+        <v>726</v>
       </c>
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="D45" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="E45" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="F45" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="H45" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I45" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J45" t="s">
-        <v>351</v>
+        <v>407</v>
       </c>
       <c r="K45" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L45" t="s">
-        <v>407</v>
+        <v>471</v>
       </c>
       <c r="M45" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="N45" t="s">
-        <v>453</v>
+        <v>526</v>
       </c>
       <c r="Q45" t="s">
-        <v>491</v>
+        <v>578</v>
       </c>
       <c r="R45" t="s">
-        <v>495</v>
+        <v>582</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>519</v>
+        <v>604</v>
       </c>
       <c r="U45" t="s">
-        <v>565</v>
+        <v>655</v>
       </c>
       <c r="V45" t="s">
-        <v>565</v>
+        <v>655</v>
       </c>
       <c r="W45" t="s">
-        <v>583</v>
+        <v>727</v>
       </c>
     </row>
     <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="D46" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="E46" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="F46" t="s">
-        <v>267</v>
+        <v>315</v>
       </c>
       <c r="H46" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I46" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J46" t="s">
-        <v>326</v>
+        <v>383</v>
       </c>
       <c r="K46" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L46" t="s">
-        <v>408</v>
+        <v>472</v>
       </c>
       <c r="M46" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="N46" t="s">
-        <v>442</v>
+        <v>515</v>
       </c>
       <c r="P46" t="s">
-        <v>484</v>
+        <v>568</v>
       </c>
       <c r="Q46" t="s">
-        <v>488</v>
+        <v>575</v>
       </c>
       <c r="R46" t="s">
-        <v>494</v>
+        <v>581</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>520</v>
+        <v>605</v>
       </c>
       <c r="U46" t="s">
-        <v>538</v>
+        <v>629</v>
       </c>
       <c r="W46" t="s">
-        <v>583</v>
+        <v>728</v>
       </c>
     </row>
     <row r="47" spans="1:23">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="D47" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="E47" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="F47" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="H47" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I47" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J47" t="s">
-        <v>352</v>
+        <v>408</v>
       </c>
       <c r="K47" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L47" t="s">
-        <v>409</v>
+        <v>473</v>
       </c>
       <c r="M47" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="N47" t="s">
-        <v>454</v>
+        <v>527</v>
       </c>
       <c r="Q47" t="s">
-        <v>485</v>
+        <v>572</v>
       </c>
       <c r="R47" t="s">
-        <v>494</v>
+        <v>581</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>521</v>
+        <v>606</v>
       </c>
       <c r="U47" t="s">
-        <v>566</v>
+        <v>656</v>
       </c>
       <c r="V47" t="s">
-        <v>566</v>
+        <v>656</v>
       </c>
       <c r="W47" t="s">
-        <v>583</v>
+        <v>729</v>
       </c>
     </row>
     <row r="48" spans="1:23">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D48" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="E48" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="F48" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="H48" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I48" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J48" t="s">
-        <v>353</v>
+        <v>409</v>
       </c>
       <c r="K48" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L48" t="s">
-        <v>410</v>
+        <v>474</v>
       </c>
       <c r="M48" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="N48" t="s">
-        <v>445</v>
+        <v>518</v>
       </c>
       <c r="U48" t="s">
-        <v>567</v>
+        <v>657</v>
       </c>
       <c r="W48" t="s">
-        <v>583</v>
+        <v>730</v>
       </c>
     </row>
     <row r="49" spans="1:23">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D49" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="F49" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="H49" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I49" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J49" t="s">
-        <v>354</v>
+        <v>410</v>
       </c>
       <c r="K49" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L49" t="s">
-        <v>411</v>
+        <v>475</v>
       </c>
       <c r="M49" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="N49" t="s">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="O49" t="s">
-        <v>472</v>
+        <v>553</v>
       </c>
       <c r="U49" t="s">
-        <v>568</v>
+        <v>658</v>
       </c>
       <c r="W49" t="s">
-        <v>583</v>
+        <v>731</v>
       </c>
     </row>
     <row r="50" spans="1:23">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="D50" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="F50" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="H50" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I50" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J50" t="s">
-        <v>355</v>
+        <v>411</v>
       </c>
       <c r="K50" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L50" t="s">
-        <v>412</v>
+        <v>476</v>
       </c>
       <c r="M50" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="N50" t="s">
-        <v>456</v>
+        <v>529</v>
       </c>
       <c r="U50" t="s">
-        <v>569</v>
+        <v>659</v>
       </c>
       <c r="W50" t="s">
-        <v>583</v>
+        <v>732</v>
       </c>
     </row>
     <row r="51" spans="1:23">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D51" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="E51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F51" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="H51" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I51" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J51" t="s">
-        <v>321</v>
+        <v>378</v>
       </c>
       <c r="K51" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L51" t="s">
-        <v>413</v>
+        <v>477</v>
       </c>
       <c r="M51" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="N51" t="s">
-        <v>457</v>
+        <v>530</v>
       </c>
       <c r="O51" t="s">
-        <v>463</v>
+        <v>544</v>
       </c>
       <c r="R51" t="s">
-        <v>496</v>
+        <v>583</v>
       </c>
       <c r="U51" t="s">
-        <v>533</v>
+        <v>624</v>
       </c>
       <c r="W51" t="s">
-        <v>583</v>
+        <v>733</v>
       </c>
     </row>
     <row r="52" spans="1:23">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="D52" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="E52" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="F52" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="H52" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I52" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J52" t="s">
-        <v>356</v>
+        <v>412</v>
       </c>
       <c r="K52" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L52" t="s">
-        <v>414</v>
+        <v>478</v>
       </c>
       <c r="M52" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="O52" t="s">
-        <v>463</v>
+        <v>544</v>
       </c>
       <c r="Q52" t="s">
-        <v>488</v>
+        <v>575</v>
       </c>
       <c r="R52" t="s">
-        <v>492</v>
+        <v>579</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>522</v>
+        <v>607</v>
       </c>
       <c r="U52" t="s">
-        <v>570</v>
+        <v>660</v>
       </c>
       <c r="W52" t="s">
-        <v>583</v>
+        <v>734</v>
       </c>
     </row>
     <row r="53" spans="1:23">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="D53" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="E53" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="F53" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="H53" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I53" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J53" t="s">
-        <v>357</v>
+        <v>413</v>
       </c>
       <c r="K53" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L53" t="s">
-        <v>415</v>
+        <v>479</v>
       </c>
       <c r="M53" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="U53" t="s">
-        <v>571</v>
+        <v>661</v>
       </c>
       <c r="V53" t="s">
-        <v>571</v>
+        <v>661</v>
       </c>
       <c r="W53" t="s">
-        <v>583</v>
+        <v>735</v>
       </c>
     </row>
     <row r="54" spans="1:23">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D54" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="E54" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
       <c r="F54" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="H54" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I54" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J54" t="s">
-        <v>358</v>
+        <v>414</v>
       </c>
       <c r="K54" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L54" t="s">
-        <v>416</v>
+        <v>480</v>
       </c>
       <c r="M54" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="O54" t="s">
-        <v>463</v>
+        <v>544</v>
       </c>
       <c r="Q54" t="s">
-        <v>488</v>
+        <v>575</v>
       </c>
       <c r="R54" t="s">
-        <v>492</v>
+        <v>579</v>
       </c>
       <c r="U54" t="s">
-        <v>572</v>
+        <v>662</v>
       </c>
       <c r="W54" t="s">
-        <v>583</v>
+        <v>736</v>
       </c>
     </row>
     <row r="55" spans="1:23">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="D55" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="E55" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="F55" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="H55" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I55" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J55" t="s">
-        <v>359</v>
+        <v>415</v>
       </c>
       <c r="K55" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L55" t="s">
-        <v>417</v>
+        <v>481</v>
       </c>
       <c r="M55" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="N55" t="s">
-        <v>458</v>
+        <v>531</v>
       </c>
       <c r="U55" t="s">
-        <v>573</v>
+        <v>663</v>
       </c>
       <c r="W55" t="s">
-        <v>583</v>
+        <v>737</v>
       </c>
     </row>
     <row r="56" spans="1:23">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="D56" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="E56" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="F56" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="H56" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I56" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J56" t="s">
-        <v>360</v>
+        <v>416</v>
       </c>
       <c r="K56" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L56" t="s">
-        <v>418</v>
+        <v>482</v>
       </c>
       <c r="M56" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="N56" t="s">
-        <v>459</v>
+        <v>532</v>
       </c>
       <c r="O56" t="s">
-        <v>462</v>
+        <v>543</v>
       </c>
       <c r="Q56" t="s">
-        <v>486</v>
+        <v>573</v>
       </c>
       <c r="R56" t="s">
-        <v>495</v>
+        <v>582</v>
       </c>
       <c r="U56" t="s">
-        <v>574</v>
+        <v>664</v>
       </c>
       <c r="W56" t="s">
-        <v>583</v>
+        <v>738</v>
       </c>
     </row>
     <row r="57" spans="1:23">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D57" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="E57" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="F57" t="s">
-        <v>267</v>
+        <v>315</v>
       </c>
       <c r="H57" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I57" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J57" t="s">
-        <v>326</v>
+        <v>383</v>
       </c>
       <c r="K57" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L57" t="s">
-        <v>418</v>
+        <v>482</v>
       </c>
       <c r="M57" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="N57" t="s">
-        <v>451</v>
+        <v>524</v>
       </c>
       <c r="O57" t="s">
-        <v>463</v>
+        <v>544</v>
       </c>
       <c r="Q57" t="s">
-        <v>488</v>
+        <v>575</v>
       </c>
       <c r="R57" t="s">
-        <v>495</v>
+        <v>582</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>523</v>
+        <v>608</v>
       </c>
       <c r="U57" t="s">
-        <v>575</v>
+        <v>665</v>
       </c>
       <c r="W57" t="s">
-        <v>583</v>
+        <v>739</v>
       </c>
     </row>
     <row r="58" spans="1:23">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D58" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="F58" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="H58" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="I58" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="J58" t="s">
-        <v>361</v>
+        <v>417</v>
       </c>
       <c r="K58" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="L58" t="s">
-        <v>419</v>
+        <v>483</v>
       </c>
       <c r="M58" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="N58" t="s">
-        <v>460</v>
+        <v>533</v>
       </c>
       <c r="U58" t="s">
-        <v>576</v>
+        <v>666</v>
       </c>
       <c r="W58" t="s">
-        <v>583</v>
+        <v>740</v>
       </c>
     </row>
     <row r="59" spans="1:23">
       <c r="A59" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D59" t="s">
+        <v>236</v>
+      </c>
+      <c r="F59" t="s">
+        <v>352</v>
+      </c>
+      <c r="H59" t="s">
+        <v>366</v>
+      </c>
+      <c r="I59" t="s">
+        <v>367</v>
+      </c>
+      <c r="J59" t="s">
+        <v>418</v>
+      </c>
+      <c r="K59" t="s">
+        <v>428</v>
+      </c>
+      <c r="L59" t="s">
+        <v>484</v>
+      </c>
+      <c r="M59" t="s">
+        <v>495</v>
+      </c>
+      <c r="S59" t="s">
+        <v>586</v>
+      </c>
+      <c r="U59" t="s">
+        <v>667</v>
+      </c>
+      <c r="V59" t="s">
+        <v>667</v>
+      </c>
+      <c r="W59" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
+      <c r="A60" t="s">
         <v>80</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D59" t="s">
-        <v>210</v>
-      </c>
-      <c r="F59" t="s">
+      <c r="B60" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D60" t="s">
+        <v>237</v>
+      </c>
+      <c r="E60" t="s">
+        <v>289</v>
+      </c>
+      <c r="F60" t="s">
+        <v>353</v>
+      </c>
+      <c r="H60" t="s">
+        <v>366</v>
+      </c>
+      <c r="I60" t="s">
+        <v>367</v>
+      </c>
+      <c r="J60" t="s">
+        <v>419</v>
+      </c>
+      <c r="K60" t="s">
+        <v>428</v>
+      </c>
+      <c r="L60" t="s">
+        <v>485</v>
+      </c>
+      <c r="M60" t="s">
+        <v>495</v>
+      </c>
+      <c r="U60" t="s">
+        <v>668</v>
+      </c>
+      <c r="W60" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
+      <c r="A61" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D61" t="s">
+        <v>238</v>
+      </c>
+      <c r="F61" t="s">
+        <v>354</v>
+      </c>
+      <c r="H61" t="s">
+        <v>366</v>
+      </c>
+      <c r="I61" t="s">
+        <v>367</v>
+      </c>
+      <c r="J61" t="s">
+        <v>420</v>
+      </c>
+      <c r="K61" t="s">
+        <v>428</v>
+      </c>
+      <c r="L61" t="s">
+        <v>486</v>
+      </c>
+      <c r="M61" t="s">
+        <v>495</v>
+      </c>
+      <c r="N61" t="s">
+        <v>534</v>
+      </c>
+      <c r="U61" t="s">
+        <v>669</v>
+      </c>
+      <c r="V61" t="s">
+        <v>669</v>
+      </c>
+      <c r="W61" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
+      <c r="A62" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D62" t="s">
+        <v>239</v>
+      </c>
+      <c r="E62" t="s">
+        <v>290</v>
+      </c>
+      <c r="F62" t="s">
         <v>305</v>
       </c>
-      <c r="H59" t="s">
-        <v>309</v>
-      </c>
-      <c r="I59" t="s">
-        <v>310</v>
-      </c>
-      <c r="J59" t="s">
-        <v>362</v>
-      </c>
-      <c r="K59" t="s">
-        <v>363</v>
-      </c>
-      <c r="L59" t="s">
-        <v>420</v>
-      </c>
-      <c r="M59" t="s">
+      <c r="H62" t="s">
+        <v>366</v>
+      </c>
+      <c r="I62" t="s">
+        <v>367</v>
+      </c>
+      <c r="J62" t="s">
+        <v>373</v>
+      </c>
+      <c r="K62" t="s">
+        <v>428</v>
+      </c>
+      <c r="L62" t="s">
+        <v>487</v>
+      </c>
+      <c r="M62" t="s">
+        <v>495</v>
+      </c>
+      <c r="N62" t="s">
+        <v>535</v>
+      </c>
+      <c r="O62" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>572</v>
+      </c>
+      <c r="R62" t="s">
+        <v>580</v>
+      </c>
+      <c r="T62" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="U62" t="s">
+        <v>670</v>
+      </c>
+      <c r="W62" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
+      <c r="A63" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D63" t="s">
+        <v>240</v>
+      </c>
+      <c r="E63" t="s">
+        <v>291</v>
+      </c>
+      <c r="F63" t="s">
+        <v>355</v>
+      </c>
+      <c r="H63" t="s">
+        <v>366</v>
+      </c>
+      <c r="I63" t="s">
+        <v>367</v>
+      </c>
+      <c r="J63" t="s">
         <v>421</v>
       </c>
-      <c r="S59" t="s">
-        <v>500</v>
-      </c>
-      <c r="U59" t="s">
+      <c r="K63" t="s">
+        <v>428</v>
+      </c>
+      <c r="L63" t="s">
+        <v>488</v>
+      </c>
+      <c r="M63" t="s">
+        <v>495</v>
+      </c>
+      <c r="O63" t="s">
+        <v>544</v>
+      </c>
+      <c r="R63" t="s">
+        <v>581</v>
+      </c>
+      <c r="U63" t="s">
+        <v>671</v>
+      </c>
+      <c r="W63" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
+      <c r="A64" t="s">
+        <v>84</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D64" t="s">
+        <v>241</v>
+      </c>
+      <c r="E64" t="s">
+        <v>292</v>
+      </c>
+      <c r="F64" t="s">
+        <v>338</v>
+      </c>
+      <c r="H64" t="s">
+        <v>366</v>
+      </c>
+      <c r="I64" t="s">
+        <v>367</v>
+      </c>
+      <c r="J64" t="s">
+        <v>404</v>
+      </c>
+      <c r="K64" t="s">
+        <v>428</v>
+      </c>
+      <c r="L64" t="s">
+        <v>489</v>
+      </c>
+      <c r="M64" t="s">
+        <v>495</v>
+      </c>
+      <c r="N64" t="s">
+        <v>536</v>
+      </c>
+      <c r="P64" t="s">
+        <v>569</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>575</v>
+      </c>
+      <c r="R64" t="s">
+        <v>579</v>
+      </c>
+      <c r="U64" t="s">
+        <v>672</v>
+      </c>
+      <c r="V64" t="s">
+        <v>683</v>
+      </c>
+      <c r="W64" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
+      <c r="A65" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D65" t="s">
+        <v>242</v>
+      </c>
+      <c r="E65" t="s">
+        <v>293</v>
+      </c>
+      <c r="F65" t="s">
+        <v>356</v>
+      </c>
+      <c r="G65" t="s">
+        <v>365</v>
+      </c>
+      <c r="H65" t="s">
+        <v>366</v>
+      </c>
+      <c r="I65" t="s">
+        <v>367</v>
+      </c>
+      <c r="J65" t="s">
+        <v>422</v>
+      </c>
+      <c r="K65" t="s">
+        <v>428</v>
+      </c>
+      <c r="L65" t="s">
+        <v>490</v>
+      </c>
+      <c r="M65" t="s">
+        <v>495</v>
+      </c>
+      <c r="N65" t="s">
+        <v>536</v>
+      </c>
+      <c r="O65" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>574</v>
+      </c>
+      <c r="R65" t="s">
+        <v>582</v>
+      </c>
+      <c r="T65" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="U65" t="s">
+        <v>673</v>
+      </c>
+      <c r="W65" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
+      <c r="A66" t="s">
+        <v>86</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D66" t="s">
+        <v>243</v>
+      </c>
+      <c r="E66" t="s">
+        <v>294</v>
+      </c>
+      <c r="F66" t="s">
+        <v>338</v>
+      </c>
+      <c r="H66" t="s">
+        <v>366</v>
+      </c>
+      <c r="I66" t="s">
+        <v>367</v>
+      </c>
+      <c r="J66" t="s">
+        <v>404</v>
+      </c>
+      <c r="K66" t="s">
+        <v>428</v>
+      </c>
+      <c r="L66" t="s">
+        <v>491</v>
+      </c>
+      <c r="M66" t="s">
+        <v>495</v>
+      </c>
+      <c r="N66" t="s">
+        <v>537</v>
+      </c>
+      <c r="O66" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>575</v>
+      </c>
+      <c r="R66" t="s">
+        <v>579</v>
+      </c>
+      <c r="T66" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="U66" t="s">
+        <v>674</v>
+      </c>
+      <c r="W66" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
+      <c r="A67" t="s">
+        <v>87</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D67" t="s">
+        <v>244</v>
+      </c>
+      <c r="E67" t="s">
+        <v>295</v>
+      </c>
+      <c r="F67" t="s">
+        <v>357</v>
+      </c>
+      <c r="H67" t="s">
+        <v>366</v>
+      </c>
+      <c r="I67" t="s">
+        <v>367</v>
+      </c>
+      <c r="J67" t="s">
+        <v>423</v>
+      </c>
+      <c r="K67" t="s">
+        <v>428</v>
+      </c>
+      <c r="L67" t="s">
+        <v>467</v>
+      </c>
+      <c r="M67" t="s">
+        <v>495</v>
+      </c>
+      <c r="N67" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>573</v>
+      </c>
+      <c r="R67" t="s">
+        <v>579</v>
+      </c>
+      <c r="T67" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="U67" t="s">
+        <v>617</v>
+      </c>
+      <c r="V67" t="s">
+        <v>617</v>
+      </c>
+      <c r="W67" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
+      <c r="A68" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D68" t="s">
+        <v>245</v>
+      </c>
+      <c r="E68" t="s">
+        <v>296</v>
+      </c>
+      <c r="F68" t="s">
+        <v>358</v>
+      </c>
+      <c r="H68" t="s">
+        <v>366</v>
+      </c>
+      <c r="I68" t="s">
+        <v>367</v>
+      </c>
+      <c r="J68" t="s">
+        <v>424</v>
+      </c>
+      <c r="K68" t="s">
+        <v>428</v>
+      </c>
+      <c r="L68" t="s">
+        <v>492</v>
+      </c>
+      <c r="M68" t="s">
+        <v>495</v>
+      </c>
+      <c r="N68" t="s">
+        <v>514</v>
+      </c>
+      <c r="O68" t="s">
+        <v>551</v>
+      </c>
+      <c r="P68" t="s">
+        <v>570</v>
+      </c>
+      <c r="Q68" t="s">
         <v>577</v>
       </c>
-      <c r="V59" t="s">
+      <c r="R68" t="s">
+        <v>582</v>
+      </c>
+      <c r="T68" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="U68" t="s">
+        <v>675</v>
+      </c>
+      <c r="V68" t="s">
+        <v>675</v>
+      </c>
+      <c r="W68" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
+      <c r="A69" t="s">
+        <v>89</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D69" t="s">
+        <v>246</v>
+      </c>
+      <c r="E69" t="s">
+        <v>297</v>
+      </c>
+      <c r="F69" t="s">
+        <v>359</v>
+      </c>
+      <c r="H69" t="s">
+        <v>366</v>
+      </c>
+      <c r="I69" t="s">
+        <v>367</v>
+      </c>
+      <c r="J69" t="s">
+        <v>425</v>
+      </c>
+      <c r="K69" t="s">
+        <v>428</v>
+      </c>
+      <c r="L69" t="s">
+        <v>493</v>
+      </c>
+      <c r="M69" t="s">
+        <v>495</v>
+      </c>
+      <c r="N69" t="s">
+        <v>539</v>
+      </c>
+      <c r="O69" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q69" t="s">
         <v>577</v>
       </c>
-      <c r="W59" t="s">
-        <v>583</v>
+      <c r="R69" t="s">
+        <v>582</v>
+      </c>
+      <c r="U69" t="s">
+        <v>676</v>
+      </c>
+      <c r="V69" t="s">
+        <v>684</v>
+      </c>
+      <c r="W69" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
+      <c r="A70" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D70" t="s">
+        <v>247</v>
+      </c>
+      <c r="E70" t="s">
+        <v>298</v>
+      </c>
+      <c r="F70" t="s">
+        <v>360</v>
+      </c>
+      <c r="H70" t="s">
+        <v>366</v>
+      </c>
+      <c r="I70" t="s">
+        <v>367</v>
+      </c>
+      <c r="J70" t="s">
+        <v>426</v>
+      </c>
+      <c r="K70" t="s">
+        <v>428</v>
+      </c>
+      <c r="L70" t="s">
+        <v>494</v>
+      </c>
+      <c r="M70" t="s">
+        <v>495</v>
+      </c>
+      <c r="N70" t="s">
+        <v>540</v>
+      </c>
+      <c r="O70" t="s">
+        <v>556</v>
+      </c>
+      <c r="P70" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>576</v>
+      </c>
+      <c r="R70" t="s">
+        <v>582</v>
+      </c>
+      <c r="T70" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="U70" t="s">
+        <v>677</v>
+      </c>
+      <c r="V70" t="s">
+        <v>677</v>
+      </c>
+      <c r="W70" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
+      <c r="A71" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D71" t="s">
+        <v>248</v>
+      </c>
+      <c r="E71" t="s">
+        <v>299</v>
+      </c>
+      <c r="F71" t="s">
+        <v>361</v>
+      </c>
+      <c r="H71" t="s">
+        <v>366</v>
+      </c>
+      <c r="I71" t="s">
+        <v>367</v>
+      </c>
+      <c r="J71" t="s">
+        <v>427</v>
+      </c>
+      <c r="K71" t="s">
+        <v>428</v>
+      </c>
+      <c r="L71" t="s">
+        <v>461</v>
+      </c>
+      <c r="M71" t="s">
+        <v>495</v>
+      </c>
+      <c r="N71" t="s">
+        <v>541</v>
+      </c>
+      <c r="O71" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>574</v>
+      </c>
+      <c r="R71" t="s">
+        <v>579</v>
+      </c>
+      <c r="U71" t="s">
+        <v>678</v>
+      </c>
+      <c r="W71" t="s">
+        <v>753</v>
       </c>
     </row>
   </sheetData>
@@ -5285,60 +6408,81 @@
     <hyperlink ref="C22" r:id="rId39"/>
     <hyperlink ref="T22" r:id="rId40"/>
     <hyperlink ref="B23" r:id="rId41"/>
-    <hyperlink ref="B24" r:id="rId42"/>
-    <hyperlink ref="T24" r:id="rId43"/>
-    <hyperlink ref="B25" r:id="rId44"/>
-    <hyperlink ref="B26" r:id="rId45"/>
-    <hyperlink ref="B27" r:id="rId46"/>
-    <hyperlink ref="T27" r:id="rId47"/>
-    <hyperlink ref="B28" r:id="rId48"/>
-    <hyperlink ref="B29" r:id="rId49"/>
-    <hyperlink ref="B30" r:id="rId50"/>
-    <hyperlink ref="C30" r:id="rId51"/>
-    <hyperlink ref="B31" r:id="rId52"/>
-    <hyperlink ref="T31" r:id="rId53"/>
-    <hyperlink ref="B32" r:id="rId54"/>
-    <hyperlink ref="T32" r:id="rId55"/>
-    <hyperlink ref="B33" r:id="rId56"/>
-    <hyperlink ref="B34" r:id="rId57"/>
-    <hyperlink ref="T34" r:id="rId58"/>
-    <hyperlink ref="B35" r:id="rId59"/>
-    <hyperlink ref="B36" r:id="rId60"/>
-    <hyperlink ref="B37" r:id="rId61"/>
-    <hyperlink ref="T37" r:id="rId62"/>
-    <hyperlink ref="B38" r:id="rId63"/>
-    <hyperlink ref="B39" r:id="rId64"/>
-    <hyperlink ref="C39" r:id="rId65"/>
-    <hyperlink ref="T39" r:id="rId66"/>
-    <hyperlink ref="B40" r:id="rId67"/>
-    <hyperlink ref="B41" r:id="rId68"/>
-    <hyperlink ref="T41" r:id="rId69"/>
-    <hyperlink ref="B42" r:id="rId70"/>
-    <hyperlink ref="B43" r:id="rId71"/>
-    <hyperlink ref="B44" r:id="rId72"/>
-    <hyperlink ref="B45" r:id="rId73"/>
-    <hyperlink ref="C45" r:id="rId74"/>
-    <hyperlink ref="T45" r:id="rId75"/>
-    <hyperlink ref="B46" r:id="rId76"/>
-    <hyperlink ref="C46" r:id="rId77"/>
-    <hyperlink ref="T46" r:id="rId78"/>
-    <hyperlink ref="B47" r:id="rId79"/>
-    <hyperlink ref="C47" r:id="rId80"/>
-    <hyperlink ref="T47" r:id="rId81"/>
-    <hyperlink ref="B48" r:id="rId82"/>
-    <hyperlink ref="B49" r:id="rId83"/>
-    <hyperlink ref="B50" r:id="rId84"/>
-    <hyperlink ref="B51" r:id="rId85"/>
-    <hyperlink ref="B52" r:id="rId86"/>
-    <hyperlink ref="T52" r:id="rId87"/>
-    <hyperlink ref="B53" r:id="rId88"/>
-    <hyperlink ref="B54" r:id="rId89"/>
-    <hyperlink ref="B55" r:id="rId90"/>
-    <hyperlink ref="B56" r:id="rId91"/>
-    <hyperlink ref="B57" r:id="rId92"/>
-    <hyperlink ref="T57" r:id="rId93"/>
-    <hyperlink ref="B58" r:id="rId94"/>
-    <hyperlink ref="B59" r:id="rId95"/>
+    <hyperlink ref="B25" r:id="rId42"/>
+    <hyperlink ref="B26" r:id="rId43"/>
+    <hyperlink ref="B27" r:id="rId44"/>
+    <hyperlink ref="T27" r:id="rId45"/>
+    <hyperlink ref="B28" r:id="rId46"/>
+    <hyperlink ref="B29" r:id="rId47"/>
+    <hyperlink ref="B30" r:id="rId48"/>
+    <hyperlink ref="C30" r:id="rId49"/>
+    <hyperlink ref="B31" r:id="rId50"/>
+    <hyperlink ref="T31" r:id="rId51"/>
+    <hyperlink ref="B32" r:id="rId52"/>
+    <hyperlink ref="T32" r:id="rId53"/>
+    <hyperlink ref="B33" r:id="rId54"/>
+    <hyperlink ref="B34" r:id="rId55"/>
+    <hyperlink ref="T34" r:id="rId56"/>
+    <hyperlink ref="B35" r:id="rId57"/>
+    <hyperlink ref="B36" r:id="rId58"/>
+    <hyperlink ref="B37" r:id="rId59"/>
+    <hyperlink ref="T37" r:id="rId60"/>
+    <hyperlink ref="B38" r:id="rId61"/>
+    <hyperlink ref="B39" r:id="rId62"/>
+    <hyperlink ref="C39" r:id="rId63"/>
+    <hyperlink ref="T39" r:id="rId64"/>
+    <hyperlink ref="B40" r:id="rId65"/>
+    <hyperlink ref="B41" r:id="rId66"/>
+    <hyperlink ref="T41" r:id="rId67"/>
+    <hyperlink ref="B42" r:id="rId68"/>
+    <hyperlink ref="B43" r:id="rId69"/>
+    <hyperlink ref="B44" r:id="rId70"/>
+    <hyperlink ref="B45" r:id="rId71"/>
+    <hyperlink ref="C45" r:id="rId72"/>
+    <hyperlink ref="T45" r:id="rId73"/>
+    <hyperlink ref="B46" r:id="rId74"/>
+    <hyperlink ref="C46" r:id="rId75"/>
+    <hyperlink ref="T46" r:id="rId76"/>
+    <hyperlink ref="B47" r:id="rId77"/>
+    <hyperlink ref="C47" r:id="rId78"/>
+    <hyperlink ref="T47" r:id="rId79"/>
+    <hyperlink ref="B48" r:id="rId80"/>
+    <hyperlink ref="B49" r:id="rId81"/>
+    <hyperlink ref="B50" r:id="rId82"/>
+    <hyperlink ref="B51" r:id="rId83"/>
+    <hyperlink ref="B52" r:id="rId84"/>
+    <hyperlink ref="T52" r:id="rId85"/>
+    <hyperlink ref="B53" r:id="rId86"/>
+    <hyperlink ref="B54" r:id="rId87"/>
+    <hyperlink ref="B55" r:id="rId88"/>
+    <hyperlink ref="B56" r:id="rId89"/>
+    <hyperlink ref="B57" r:id="rId90"/>
+    <hyperlink ref="T57" r:id="rId91"/>
+    <hyperlink ref="B58" r:id="rId92"/>
+    <hyperlink ref="B59" r:id="rId93"/>
+    <hyperlink ref="B60" r:id="rId94"/>
+    <hyperlink ref="B61" r:id="rId95"/>
+    <hyperlink ref="B62" r:id="rId96"/>
+    <hyperlink ref="C62" r:id="rId97"/>
+    <hyperlink ref="T62" r:id="rId98"/>
+    <hyperlink ref="B63" r:id="rId99"/>
+    <hyperlink ref="B64" r:id="rId100"/>
+    <hyperlink ref="B65" r:id="rId101"/>
+    <hyperlink ref="T65" r:id="rId102"/>
+    <hyperlink ref="B66" r:id="rId103"/>
+    <hyperlink ref="T66" r:id="rId104"/>
+    <hyperlink ref="B67" r:id="rId105"/>
+    <hyperlink ref="C67" r:id="rId106"/>
+    <hyperlink ref="T67" r:id="rId107"/>
+    <hyperlink ref="B68" r:id="rId108"/>
+    <hyperlink ref="C68" r:id="rId109"/>
+    <hyperlink ref="T68" r:id="rId110"/>
+    <hyperlink ref="B69" r:id="rId111"/>
+    <hyperlink ref="B70" r:id="rId112"/>
+    <hyperlink ref="C70" r:id="rId113"/>
+    <hyperlink ref="T70" r:id="rId114"/>
+    <hyperlink ref="B71" r:id="rId115"/>
+    <hyperlink ref="C71" r:id="rId116"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
